--- a/Result/Q1_bcps_accept_rate_comparison.xlsx
+++ b/Result/Q1_bcps_accept_rate_comparison.xlsx
@@ -475,22 +475,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3100614285714288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.2872437044600281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.2786495445484137</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2633333333333333</v>
+        <v>0.2809371450906964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.275</v>
+        <v>0.2790141766614126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2646666666666667</v>
+        <v>0.2785111680936274</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8819095154845161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7948717948717949</v>
+        <v>0.8756461716189948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8671428571428572</v>
+        <v>0.8774287841681704</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8946581196581196</v>
+        <v>0.8731391597490996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8640790154482962</v>
+        <v>0.8734965539995906</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8643548652732129</v>
+        <v>0.8733743768702615</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4409090909090909</v>
+        <v>0.4662245128781896</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2891414141414141</v>
+        <v>0.4457777298698303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3496873496873497</v>
+        <v>0.4464738427788783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3143691275167785</v>
+        <v>0.4429876660714637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3161999302076323</v>
+        <v>0.4407501115290468</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3295946109085641</v>
+        <v>0.4403842030456932</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2677777777777778</v>
+        <v>0.3192397259055141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.269927536231884</v>
+        <v>0.2919138767552288</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3663682864450128</v>
+        <v>0.287462327774285</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3290598290598291</v>
+        <v>0.2894161919520449</v>
       </c>
       <c r="F5" t="n">
-        <v>0.358781604747162</v>
+        <v>0.2890459732978125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3489760265808451</v>
+        <v>0.2893346420502736</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.2638258105759786</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5741071428571428</v>
+        <v>0.2526664133121553</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6395833333333334</v>
+        <v>0.2570511046296329</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6422619047619047</v>
+        <v>0.2596181690538554</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6348009226757597</v>
+        <v>0.2614359678210986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6399202551834131</v>
+        <v>0.2622841418765778</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225</v>
+        <v>0.2842572119679265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2172805642633229</v>
+        <v>0.2449527654273788</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1608447126071769</v>
+        <v>0.2409925006442293</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1368728073753773</v>
+        <v>0.237829476946839</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1473824824047266</v>
+        <v>0.2377186571138566</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1482081762703601</v>
+        <v>0.2385757252413546</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.475</v>
+        <v>0.6178592753542751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5662464985994398</v>
+        <v>0.5966770128033223</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5506810897435898</v>
+        <v>0.5954320778471967</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5271442495126706</v>
+        <v>0.591654155287879</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5283098803037454</v>
+        <v>0.5928977074246989</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5370101989532425</v>
+        <v>0.59300882039253</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6</v>
+        <v>0.8871883277860482</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.8786401095753903</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5858070500927643</v>
+        <v>0.8790601210783799</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6250515960374243</v>
+        <v>0.8802007469458348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6150847203478782</v>
+        <v>0.8794051645623807</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6325188386524823</v>
+        <v>0.8791502919555741</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.19</v>
+        <v>0.1687846669462884</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2374946785866326</v>
+        <v>0.1203395365778544</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3040996367410482</v>
+        <v>0.1192681719046642</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2589089505256281</v>
+        <v>0.1176531216645742</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2558650569288867</v>
+        <v>0.1172972898563117</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2501661623737835</v>
+        <v>0.117521551424666</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5</v>
+        <v>0.4874736661486667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.625</v>
+        <v>0.4572521054719019</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5958333333333333</v>
+        <v>0.4558575964543548</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6300505050505051</v>
+        <v>0.4533150764842597</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5813750080391022</v>
+        <v>0.4522696567775203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6016642024550425</v>
+        <v>0.4505004219816246</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3517857142857143</v>
+        <v>0.336980460781049</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2105357142857143</v>
+        <v>0.3351606050167645</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2864583333333334</v>
+        <v>0.3363531299054079</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3206521739130435</v>
+        <v>0.3310282024833556</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3146149958823089</v>
+        <v>0.3329044625526565</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2983150565490413</v>
+        <v>0.3310829323461459</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3920454545454546</v>
+        <v>0.3496198565840479</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.3318448366902609</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3888499298737728</v>
+        <v>0.3277025374417017</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4210041352031643</v>
+        <v>0.3304093143699959</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4275742373568461</v>
+        <v>0.3293635279467013</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4052915996065808</v>
+        <v>0.3276773986359606</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.625</v>
+        <v>0.5137836601742484</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6291797283176594</v>
+        <v>0.5320590901887898</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6525793650793651</v>
+        <v>0.5335772317510338</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6101648351648352</v>
+        <v>0.538107124072824</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6381535381535381</v>
+        <v>0.5415835285552676</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6469056667990243</v>
+        <v>0.5426182208239451</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2566137566137566</v>
+        <v>0.2403334644020784</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2515568563955661</v>
+        <v>0.1910426684015328</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1876893939393939</v>
+        <v>0.1875233732525788</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2398188948010199</v>
+        <v>0.1872924980065673</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2120985399323241</v>
+        <v>0.1850296867458467</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2216883271185202</v>
+        <v>0.1849772079290141</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.788888888888889</v>
+        <v>0.6513721984805321</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6316459947606214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4589727195225916</v>
+        <v>0.6357883601823565</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4888234549138805</v>
+        <v>0.6342336919208993</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4112908965208727</v>
+        <v>0.6329138273533125</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4413888888888889</v>
+        <v>0.6321463518130528</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +820,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4910714285714285</v>
+        <v>0.7470226373626372</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6324324324324324</v>
+        <v>0.737100753330206</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6294136191677175</v>
+        <v>0.7395265270644252</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6275631189845167</v>
+        <v>0.7425427833148163</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6212697355739745</v>
+        <v>0.7414084071823993</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6298637689083288</v>
+        <v>0.7406234109407641</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +843,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.182843137254902</v>
+        <v>0.2108324902147986</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1281771968046478</v>
+        <v>0.1882459620405569</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08923611111111111</v>
+        <v>0.1812585281092118</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1188725490196079</v>
+        <v>0.1808404129036005</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1042149506079027</v>
+        <v>0.1804122211073923</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1007305659125762</v>
+        <v>0.1810239690081287</v>
       </c>
     </row>
     <row r="19">
@@ -866,22 +866,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2623737373737374</v>
+        <v>0.3017698048248054</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2584490740740741</v>
+        <v>0.2744089273019092</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1668763102725367</v>
+        <v>0.2708431040354459</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2282608695652174</v>
+        <v>0.2753576014476069</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2100971483451536</v>
+        <v>0.2741480339665353</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2058855349994591</v>
+        <v>0.2777356692206907</v>
       </c>
     </row>
     <row r="20">
@@ -889,22 +889,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.2630191913840133</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2370689655172414</v>
+        <v>0.2263523615062995</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1914124293785311</v>
+        <v>0.2273573088821067</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2162000746547219</v>
+        <v>0.2263212388950607</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2136181023277798</v>
+        <v>0.2242016973670994</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2067158385093168</v>
+        <v>0.224434961966184</v>
       </c>
     </row>
     <row r="21">
@@ -912,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6239316239316239</v>
+        <v>0.482376945369445</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6035714285714286</v>
+        <v>0.4703642646528303</v>
       </c>
       <c r="D21" t="n">
-        <v>0.581875</v>
+        <v>0.4656889687109196</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6013612352702153</v>
+        <v>0.4650155033269442</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5903441023342413</v>
+        <v>0.4665654486471209</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6184330123925317</v>
+        <v>0.4656026428171614</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +935,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.8025876318126318</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8056485532142841</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.8046669345721411</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9901960784313726</v>
+        <v>0.8073970829205127</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9761092150170648</v>
+        <v>0.808007143488139</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9758418740849195</v>
+        <v>0.8089799731166772</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1842912923813869</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07891304347826086</v>
+        <v>0.1362811064209759</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06640806376721869</v>
+        <v>0.134560932327771</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08555089820359282</v>
+        <v>0.1357002823626443</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06504663064605289</v>
+        <v>0.1345308193934008</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0638044732239217</v>
+        <v>0.1346208079055008</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +981,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6886865922965925</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.661195581414871</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5105676328502415</v>
+        <v>0.6601446879975437</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4291106945746122</v>
+        <v>0.656981668586792</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5575485949573541</v>
+        <v>0.6557856725548754</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5049249879089991</v>
+        <v>0.6562209426579472</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +1004,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4843944419220675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3244652406417112</v>
+        <v>0.4724518549865299</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3398601398601399</v>
+        <v>0.4711874559126371</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3374935995903738</v>
+        <v>0.4708062122621466</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3536616746159064</v>
+        <v>0.4704990685351285</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3200766494009313</v>
+        <v>0.4699010724861274</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3944444444444445</v>
+        <v>0.2887424933959807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3129910213243546</v>
+        <v>0.2597171660626693</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3729166666666667</v>
+        <v>0.2600479461458686</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4016531713900135</v>
+        <v>0.25768613730298</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3545989163472975</v>
+        <v>0.2585648836116466</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3887216565835424</v>
+        <v>0.2583796056529131</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +1050,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1726190476190476</v>
+        <v>0.3573827938727945</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2436776061776062</v>
+        <v>0.3453253388382299</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2057094403617863</v>
+        <v>0.3496850712386809</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2657183981034629</v>
+        <v>0.3549471514851231</v>
       </c>
       <c r="F27" t="n">
-        <v>0.266442777981005</v>
+        <v>0.3560194679874604</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2563581198308825</v>
+        <v>0.3550706204680716</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2566666666666667</v>
+        <v>0.2569781721826266</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.2165153850221219</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3256944444444445</v>
+        <v>0.2172269286117466</v>
       </c>
       <c r="E28" t="n">
-        <v>0.272818707568519</v>
+        <v>0.2133096626299762</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2813799014356118</v>
+        <v>0.2121144566005625</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2686147378646754</v>
+        <v>0.2137209015167894</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6248842131942133</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7406754032258065</v>
+        <v>0.6186389943681954</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6967236467236467</v>
+        <v>0.6121101682350599</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7022058823529411</v>
+        <v>0.6111491567835169</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7315579710144928</v>
+        <v>0.612358077739665</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7336245657061108</v>
+        <v>0.6121890421260573</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +1119,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0.8316303770392957</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.8298361150313016</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9893617021276595</v>
+        <v>0.826063636828553</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0.8282335216594576</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9981378026070764</v>
+        <v>0.827490708546984</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9964539007092199</v>
+        <v>0.8270746475013783</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.175</v>
+        <v>0.1864975493571763</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1796056260341974</v>
+        <v>0.1458821739518957</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1793478260869565</v>
+        <v>0.1433678582319059</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1452546296296296</v>
+        <v>0.1446867251653586</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1535237459469769</v>
+        <v>0.1445055303621801</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1506638382303276</v>
+        <v>0.1440558837304512</v>
       </c>
     </row>
     <row r="32">
@@ -1165,22 +1165,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6015151515151516</v>
+        <v>0.4045863721463722</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5435075431034483</v>
+        <v>0.3745224392036859</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5700571895424836</v>
+        <v>0.3751896016381897</v>
       </c>
       <c r="E32" t="n">
-        <v>0.530508964719491</v>
+        <v>0.378210016427538</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5242445305840808</v>
+        <v>0.3751327522456853</v>
       </c>
       <c r="G32" t="n">
-        <v>0.52532531213297</v>
+        <v>0.37612588058326</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +1188,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3833333333333333</v>
+        <v>0.2775950738228473</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3494897959183674</v>
+        <v>0.2496102395012048</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4322609587285311</v>
+        <v>0.2487265058562202</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3769268713774818</v>
+        <v>0.2492028739130405</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3640931000775272</v>
+        <v>0.2455013840953017</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3879777417660074</v>
+        <v>0.2465339214392022</v>
       </c>
     </row>
     <row r="34">
@@ -1211,22 +1211,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4175824175824175</v>
+        <v>0.3864291080488141</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3422182656053624</v>
+        <v>0.3760842181944529</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3347701149425287</v>
+        <v>0.3729868849661563</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3061263531168346</v>
+        <v>0.3723871978559464</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3225399525176287</v>
+        <v>0.3721636255382571</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3330134589845745</v>
+        <v>0.3725307853494493</v>
       </c>
     </row>
     <row r="35">
@@ -1234,22 +1234,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.625</v>
+        <v>0.64269167372932</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6342592592592593</v>
+        <v>0.6598146336633822</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6277777777777778</v>
+        <v>0.6567664191690333</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6442307692307692</v>
+        <v>0.660803864752296</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6380471380471381</v>
+        <v>0.6608451501494043</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6290723276210047</v>
+        <v>0.66053621850808</v>
       </c>
     </row>
     <row r="36">
@@ -1257,22 +1257,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.2206755034426366</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2487962100031066</v>
+        <v>0.1641732953069475</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2179441934876717</v>
+        <v>0.1602349610780103</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2176646236052177</v>
+        <v>0.1593120790846526</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2226386546971604</v>
+        <v>0.1589341309126663</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2219583793113205</v>
+        <v>0.1589123705048983</v>
       </c>
     </row>
     <row r="37">
@@ -1280,22 +1280,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6340909090909091</v>
+        <v>0.679255595515595</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3846749226006192</v>
+        <v>0.6561201725017289</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3671936758893281</v>
+        <v>0.6503781574864687</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4213075060532688</v>
+        <v>0.6473957663545643</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4093818995426589</v>
+        <v>0.6448030784546441</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4161769092477487</v>
+        <v>0.6485819830547778</v>
       </c>
     </row>
     <row r="38">
@@ -1303,22 +1303,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.611111111111111</v>
+        <v>0.6661676688126688</v>
       </c>
       <c r="C38" t="n">
-        <v>0.662037037037037</v>
+        <v>0.6500861289113841</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4559496567505721</v>
+        <v>0.6486805986159235</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5931826325848065</v>
+        <v>0.6489686907787668</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6006429137872437</v>
+        <v>0.6469481601865668</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5799196660793691</v>
+        <v>0.6469252677775031</v>
       </c>
     </row>
     <row r="39">
@@ -1326,22 +1326,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3524305555555556</v>
+        <v>0.250740906635075</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2718988830099941</v>
+        <v>0.2223048716490286</v>
       </c>
       <c r="D39" t="n">
-        <v>0.117871259175607</v>
+        <v>0.2168268481616094</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2834298492058941</v>
+        <v>0.2184607312760392</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2876011185458903</v>
+        <v>0.2178081322202458</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2912230795344903</v>
+        <v>0.217076814374203</v>
       </c>
     </row>
     <row r="40">
@@ -1349,22 +1349,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.3148861198677866</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5267857142857143</v>
+        <v>0.2969447169537977</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3393261150614092</v>
+        <v>0.2974060572674773</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.2959260760312686</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5065109034267913</v>
+        <v>0.2976790121714135</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5060759493670887</v>
+        <v>0.2998827749561344</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1372,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2816017316017316</v>
+        <v>0.2675953237262276</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1597222222222222</v>
+        <v>0.2213408161108247</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1314229249011858</v>
+        <v>0.2158919052425376</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1406028368794326</v>
+        <v>0.2150255426523366</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1231832070477126</v>
+        <v>0.2119115462578983</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1348305928290692</v>
+        <v>0.2129120533274083</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1395,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7096153846153846</v>
+        <v>0.5374723567173569</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6691919191919192</v>
+        <v>0.5324508306459599</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7705555555555555</v>
+        <v>0.5275720808572879</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7798763736263736</v>
+        <v>0.5285033941175513</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7438061938061938</v>
+        <v>0.5268473717988845</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7534813388782181</v>
+        <v>0.526366063122283</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1418,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.875</v>
+        <v>0.8363275220612719</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9375</v>
+        <v>0.846988076408663</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9657534246575342</v>
+        <v>0.8536994110799367</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9627329192546583</v>
+        <v>0.8508912298686082</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9699519230769231</v>
+        <v>0.8522883871774252</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9655414908579465</v>
+        <v>0.8515394375713191</v>
       </c>
     </row>
     <row r="44">
@@ -1441,22 +1441,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.1809126161227455</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1163059163059163</v>
+        <v>0.1309618873209965</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1113349449368789</v>
+        <v>0.1274872066483678</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1369393470064611</v>
+        <v>0.1278800120989694</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1135727407925816</v>
+        <v>0.1282802538936385</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1119061013299996</v>
+        <v>0.1279136300708036</v>
       </c>
     </row>
     <row r="45">
@@ -1464,22 +1464,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6444444444444444</v>
+        <v>0.5558705707255712</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6292016806722689</v>
+        <v>0.5317800925148135</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6776871980676329</v>
+        <v>0.5266201663495028</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6259546271338724</v>
+        <v>0.522514173779873</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6359219778993191</v>
+        <v>0.5221980285857399</v>
       </c>
       <c r="G45" t="n">
-        <v>0.617117203219316</v>
+        <v>0.5219257297995079</v>
       </c>
     </row>
     <row r="46">
@@ -1487,22 +1487,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6048951048951049</v>
+        <v>0.376444632540662</v>
       </c>
       <c r="C46" t="n">
-        <v>0.575925925925926</v>
+        <v>0.3698865847389205</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5191408533021625</v>
+        <v>0.3633727372720696</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.36448300824478</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5588323269335028</v>
+        <v>0.3611574004001683</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5598122775520489</v>
+        <v>0.3638716690203275</v>
       </c>
     </row>
     <row r="47">
@@ -1510,22 +1510,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1827651515151515</v>
+        <v>0.3298055088430096</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1828579916815211</v>
+        <v>0.3130603381838777</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1468004459308807</v>
+        <v>0.3084964326829203</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1605820105820106</v>
+        <v>0.3069703049068352</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1357404944838456</v>
+        <v>0.310562899395374</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1425653996508741</v>
+        <v>0.3092719989758108</v>
       </c>
     </row>
     <row r="48">
@@ -1533,22 +1533,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3833333333333333</v>
+        <v>0.4649138011090216</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.4616230041716715</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2338541666666667</v>
+        <v>0.4591446406677361</v>
       </c>
       <c r="E48" t="n">
-        <v>0.26875</v>
+        <v>0.4639110412475345</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2719577396503892</v>
+        <v>0.4654804284078606</v>
       </c>
       <c r="G48" t="n">
-        <v>0.276356828472816</v>
+        <v>0.4624418500378276</v>
       </c>
     </row>
     <row r="49">
@@ -1556,22 +1556,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1988636363636364</v>
+        <v>0.2475842513718778</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2073529411764706</v>
+        <v>0.2058115834294999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2408730158730158</v>
+        <v>0.2011738311671372</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2090277777777778</v>
+        <v>0.2001734160394135</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2119804474613912</v>
+        <v>0.1986508932360483</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2269540959762067</v>
+        <v>0.198731112628172</v>
       </c>
     </row>
     <row r="50">
@@ -1579,22 +1579,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.6547859854959855</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9814814814814814</v>
+        <v>0.6286069974743695</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9278759466282005</v>
+        <v>0.6322312879855521</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9072432943400686</v>
+        <v>0.628002606627316</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9018693018417672</v>
+        <v>0.6273389470851439</v>
       </c>
       <c r="G50" t="n">
-        <v>0.902808239478364</v>
+        <v>0.6264032998721262</v>
       </c>
     </row>
     <row r="51">
@@ -1602,22 +1602,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6907407407407408</v>
+        <v>0.8022261685645512</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6401098901098902</v>
+        <v>0.803405896511886</v>
       </c>
       <c r="D51" t="n">
-        <v>0.635587002096436</v>
+        <v>0.8053249248697834</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6568463611859838</v>
+        <v>0.8054958937227704</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6680622459732048</v>
+        <v>0.8047188554736801</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6457400123820969</v>
+        <v>0.8035880889505369</v>
       </c>
     </row>
   </sheetData>
